--- a/public/sampleFile/custom-order-upload-sample.xlsx
+++ b/public/sampleFile/custom-order-upload-sample.xlsx
@@ -4,30 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>주문번호</t>
+  </si>
+  <si>
+    <t>주문일자</t>
+  </si>
   <si>
     <t>상품명</t>
   </si>
@@ -47,6 +40,9 @@
     <t>구매링크</t>
   </si>
   <si>
+    <t>옵션명（한글+중문)</t>
+  </si>
+  <si>
     <t>사이즈</t>
   </si>
   <si>
@@ -56,6 +52,9 @@
     <t>원가</t>
   </si>
   <si>
+    <t>판매가</t>
+  </si>
+  <si>
     <t>실구매가</t>
   </si>
   <si>
@@ -74,7 +73,7 @@
     <t>중국택배번호</t>
   </si>
   <si>
-    <t>택배현황 메모</t>
+    <t>택배현황</t>
   </si>
   <si>
     <t>실도착수량</t>
@@ -83,15 +82,17 @@
     <t>메모</t>
   </si>
   <si>
-    <t>옵션명（한글+중문)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>구매상태</t>
+  </si>
+  <si>
+    <t>입출고상태</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +108,42 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="BatangChe"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -124,47 +159,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,39 +176,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -216,13 +267,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.39991454817346722"/>
         </bottom>
       </border>
     </dxf>
@@ -232,13 +283,13 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.39991454817346722"/>
         </bottom>
       </border>
     </dxf>
@@ -253,7 +304,7 @@
       </font>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.39991454817346722"/>
         </bottom>
       </border>
     </dxf>
@@ -280,16 +331,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
     </dxf>
@@ -300,16 +351,16 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
       <border>
         <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.39991454817346722"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.39991454817346722"/>
         </bottom>
       </border>
     </dxf>
@@ -320,29 +371,29 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.39991454817346722"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
     </dxf>
@@ -399,7 +450,7 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.39991454817346722"/>
         </horizontal>
       </border>
     </dxf>
@@ -690,139 +741,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="67.375" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="55.875" customWidth="1"/>
-    <col min="7" max="7" width="25.875" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="25.625" customWidth="1"/>
-    <col min="16" max="16" width="17.75" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="1" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="10.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="34" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.25" style="2" customWidth="1"/>
+    <col min="14" max="22" width="10.625" style="2" customWidth="1"/>
+    <col min="23" max="24" width="10.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="16.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+    <row r="2" spans="1:24" s="18" customFormat="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+    <row r="3" spans="1:24">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+    <row r="4" spans="1:24">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+    <row r="5" spans="1:24">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+    <row r="6" spans="1:24">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>